--- a/martin/SEA.xlsx
+++ b/martin/SEA.xlsx
@@ -149,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +168,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -194,6 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -497,9 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -618,53 +623,57 @@
         <v>27</v>
       </c>
       <c r="B5" s="5">
-        <f>B4/$H4</f>
+        <f t="shared" ref="B5:G5" si="1">B4/$H4</f>
         <v>4.4776119402985079E-2</v>
       </c>
       <c r="C5" s="5">
-        <f>C4/$H4</f>
+        <f t="shared" si="1"/>
         <v>0.10746268656716419</v>
       </c>
       <c r="D5" s="5">
-        <f>D4/$H4</f>
+        <f t="shared" si="1"/>
         <v>0.23880597014925378</v>
       </c>
       <c r="E5" s="5">
-        <f>E4/$H4</f>
+        <f t="shared" si="1"/>
         <v>0.31343283582089548</v>
       </c>
       <c r="F5" s="5">
-        <f>F4/$H4</f>
+        <f t="shared" si="1"/>
         <v>0.23283582089552243</v>
       </c>
       <c r="G5" s="5">
-        <f>G4/$H4</f>
+        <f t="shared" si="1"/>
         <v>6.2686567164179113E-2</v>
+      </c>
+      <c r="H5" s="10">
+        <f>SUM(B5:G5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
-        <f>B5*LOG(1/B5)</f>
+        <f t="shared" ref="B6:G6" si="2">B5*LOG(1/B5)</f>
         <v>6.0400905133484964E-2</v>
       </c>
       <c r="C6" s="5">
-        <f>C5*LOG(1/C5)</f>
+        <f t="shared" si="2"/>
         <v>0.10410365082299729</v>
       </c>
       <c r="D6" s="5">
-        <f>D5*LOG(1/D5)</f>
+        <f t="shared" si="2"/>
         <v>0.14852652418982726</v>
       </c>
       <c r="E6" s="5">
-        <f>E5*LOG(1/E5)</f>
+        <f t="shared" si="2"/>
         <v>0.1579248607060455</v>
       </c>
       <c r="F6" s="5">
-        <f>F5*LOG(1/F5)</f>
+        <f t="shared" si="2"/>
         <v>0.1473734804149745</v>
       </c>
       <c r="G6" s="5">
-        <f>G5*LOG(1/G5)</f>
+        <f t="shared" si="2"/>
         <v>7.5401002263765518E-2</v>
       </c>
       <c r="H6" s="6">
@@ -761,23 +770,23 @@
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" ref="C11:G11" si="1">C9*C10</f>
+        <f t="shared" ref="C11:G11" si="3">C9*C10</f>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000008E-9</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="H11" s="4">
@@ -790,53 +799,53 @@
         <v>27</v>
       </c>
       <c r="B12" s="5">
-        <f>B11/$H11</f>
+        <f t="shared" ref="B12:G12" si="4">B11/$H11</f>
         <v>1.6666666544444445E-9</v>
       </c>
       <c r="C12" s="5">
-        <f>C11/$H11</f>
+        <f t="shared" si="4"/>
         <v>6.6666666177777786E-10</v>
       </c>
       <c r="D12" s="5">
-        <f>D11/$H11</f>
+        <f t="shared" si="4"/>
         <v>2.6666666471111114E-9</v>
       </c>
       <c r="E12" s="5">
-        <f>E11/$H11</f>
+        <f t="shared" si="4"/>
         <v>0.99999999266666673</v>
       </c>
       <c r="F12" s="5">
-        <f>F11/$H11</f>
+        <f t="shared" si="4"/>
         <v>1.9999999853333335E-9</v>
       </c>
       <c r="G12" s="5">
-        <f>G11/$H11</f>
+        <f t="shared" si="4"/>
         <v>3.3333333088888893E-10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
-        <f>B12*LOG(1/B12)</f>
+        <f t="shared" ref="B13:G13" si="5">B12*LOG(1/B12)</f>
         <v>1.463025198199227E-8</v>
       </c>
       <c r="C13" s="5">
-        <f>C12*LOG(1/C12)</f>
+        <f t="shared" si="5"/>
         <v>6.1173941299661151E-9</v>
       </c>
       <c r="D13" s="5">
-        <f>D12*LOG(1/D12)</f>
+        <f t="shared" si="5"/>
         <v>2.2864083221430181E-8</v>
       </c>
       <c r="E13" s="5">
-        <f>E12*LOG(1/E12)</f>
+        <f t="shared" si="5"/>
         <v>3.1848261398062208E-9</v>
       </c>
       <c r="F13" s="5">
-        <f>F12*LOG(1/F12)</f>
+        <f t="shared" si="5"/>
         <v>1.7397939887456799E-8</v>
       </c>
       <c r="G13" s="5">
-        <f>G12*LOG(1/G12)</f>
+        <f t="shared" si="5"/>
         <v>3.1590403961352004E-9</v>
       </c>
       <c r="H13" s="6">
@@ -876,23 +885,23 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:G16" si="2">1/6</f>
+        <f t="shared" ref="C16:G16" si="6">1/6</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="H16" s="3">
@@ -939,23 +948,23 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:G18" si="3">C16*C17</f>
+        <f t="shared" ref="C18:G18" si="7">C16*C17</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H18" s="4">
@@ -968,53 +977,53 @@
         <v>27</v>
       </c>
       <c r="B19" s="5">
-        <f>B18/$H18</f>
+        <f t="shared" ref="B19:G19" si="8">B18/$H18</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="C19" s="5">
-        <f>C18/$H18</f>
+        <f t="shared" si="8"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="D19" s="5">
-        <f>D18/$H18</f>
+        <f t="shared" si="8"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="E19" s="5">
-        <f>E18/$H18</f>
+        <f t="shared" si="8"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="F19" s="5">
-        <f>F18/$H18</f>
+        <f t="shared" si="8"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="G19" s="5">
-        <f>G18/$H18</f>
+        <f t="shared" si="8"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <f>B19*LOG(1/B19)</f>
+        <f t="shared" ref="B20:G20" si="9">B19*LOG(1/B19)</f>
         <v>0.12969187506394061</v>
       </c>
       <c r="C20" s="5">
-        <f>C19*LOG(1/C19)</f>
+        <f t="shared" si="9"/>
         <v>0.12969187506394061</v>
       </c>
       <c r="D20" s="5">
-        <f>D19*LOG(1/D19)</f>
+        <f t="shared" si="9"/>
         <v>0.12969187506394061</v>
       </c>
       <c r="E20" s="5">
-        <f>E19*LOG(1/E19)</f>
+        <f t="shared" si="9"/>
         <v>0.12969187506394061</v>
       </c>
       <c r="F20" s="5">
-        <f>F19*LOG(1/F19)</f>
+        <f t="shared" si="9"/>
         <v>0.12969187506394061</v>
       </c>
       <c r="G20" s="5">
-        <f>G19*LOG(1/G19)</f>
+        <f t="shared" si="9"/>
         <v>0.12969187506394061</v>
       </c>
       <c r="H20" s="6">
@@ -1111,23 +1120,23 @@
         <v>0.5</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" ref="C25:G25" si="4">C23*C24</f>
+        <f t="shared" ref="C25:G25" si="10">C23*C24</f>
         <v>0.5</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="H25" s="4">
@@ -1140,53 +1149,53 @@
         <v>27</v>
       </c>
       <c r="B26" s="5">
-        <f>B25/$H25</f>
+        <f t="shared" ref="B26:G26" si="11">B25/$H25</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="C26" s="5">
-        <f>C25/$H25</f>
+        <f t="shared" si="11"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="5">
-        <f>D25/$H25</f>
+        <f t="shared" si="11"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E26" s="5">
-        <f>E25/$H25</f>
+        <f t="shared" si="11"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F26" s="5">
-        <f>F25/$H25</f>
+        <f t="shared" si="11"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G26" s="5">
-        <f>G25/$H25</f>
+        <f t="shared" si="11"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
-        <f>B26*LOG(1/B26)</f>
+        <f t="shared" ref="B27:G27" si="12">B26*LOG(1/B26)</f>
         <v>0.12969187506394059</v>
       </c>
       <c r="C27" s="5">
-        <f>C26*LOG(1/C26)</f>
+        <f t="shared" si="12"/>
         <v>0.12969187506394059</v>
       </c>
       <c r="D27" s="5">
-        <f>D26*LOG(1/D26)</f>
+        <f t="shared" si="12"/>
         <v>0.12969187506394059</v>
       </c>
       <c r="E27" s="5">
-        <f>E26*LOG(1/E26)</f>
+        <f t="shared" si="12"/>
         <v>0.12969187506394059</v>
       </c>
       <c r="F27" s="5">
-        <f>F26*LOG(1/F26)</f>
+        <f t="shared" si="12"/>
         <v>0.12969187506394059</v>
       </c>
       <c r="G27" s="5">
-        <f>G26*LOG(1/G26)</f>
+        <f t="shared" si="12"/>
         <v>0.12969187506394059</v>
       </c>
       <c r="H27" s="6">
@@ -1334,27 +1343,27 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <f>B5*B3</f>
+        <f t="shared" ref="B7:G7" si="0">B5*B3</f>
         <v>15</v>
       </c>
       <c r="C7">
-        <f>C5*C3</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D7">
-        <f>D5*D3</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E7">
-        <f>E5*E3</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="F7">
-        <f>F5*F3</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="G7">
-        <f>G5*G3</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="H7" s="4">
@@ -1370,27 +1379,27 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <f>B3*100</f>
+        <f t="shared" ref="B8:G8" si="1">B3*100</f>
         <v>500</v>
       </c>
       <c r="C8">
-        <f>C3*100</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D8">
-        <f>D3*100</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="E8">
-        <f>E3*100</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="F8">
-        <f>F3*100</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="G8">
-        <f>G3*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H8" s="4">
@@ -1407,23 +1416,23 @@
         <v>0.15</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:G10" si="0">C3*C2</f>
+        <f t="shared" ref="C10:G10" si="2">C3*C2</f>
         <v>0.36</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.21</v>
       </c>
       <c r="H10" s="4">
@@ -1436,53 +1445,53 @@
         <v>27</v>
       </c>
       <c r="B11" s="5">
-        <f>B10/$H10</f>
+        <f t="shared" ref="B11:G11" si="3">B10/$H10</f>
         <v>4.4776119402985079E-2</v>
       </c>
       <c r="C11" s="5">
-        <f>C10/$H10</f>
+        <f t="shared" si="3"/>
         <v>0.10746268656716419</v>
       </c>
       <c r="D11" s="5">
-        <f>D10/$H10</f>
+        <f t="shared" si="3"/>
         <v>0.23880597014925378</v>
       </c>
       <c r="E11" s="5">
-        <f>E10/$H10</f>
+        <f t="shared" si="3"/>
         <v>0.31343283582089548</v>
       </c>
       <c r="F11" s="5">
-        <f>F10/$H10</f>
+        <f t="shared" si="3"/>
         <v>0.23283582089552243</v>
       </c>
       <c r="G11" s="5">
-        <f>G10/$H10</f>
+        <f t="shared" si="3"/>
         <v>6.2686567164179113E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <f>B11*LOG(1/B11)</f>
+        <f t="shared" ref="B12:G12" si="4">B11*LOG(1/B11)</f>
         <v>6.0400905133484964E-2</v>
       </c>
       <c r="C12" s="5">
-        <f>C11*LOG(1/C11)</f>
+        <f t="shared" si="4"/>
         <v>0.10410365082299729</v>
       </c>
       <c r="D12" s="5">
-        <f>D11*LOG(1/D11)</f>
+        <f t="shared" si="4"/>
         <v>0.14852652418982726</v>
       </c>
       <c r="E12" s="5">
-        <f>E11*LOG(1/E11)</f>
+        <f t="shared" si="4"/>
         <v>0.1579248607060455</v>
       </c>
       <c r="F12" s="5">
-        <f>F11*LOG(1/F11)</f>
+        <f t="shared" si="4"/>
         <v>0.1473734804149745</v>
       </c>
       <c r="G12" s="5">
-        <f>G11*LOG(1/G11)</f>
+        <f t="shared" si="4"/>
         <v>7.5401002263765518E-2</v>
       </c>
       <c r="H12" s="6">
@@ -1538,27 +1547,27 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <f>B15*B14</f>
+        <f t="shared" ref="B16:G16" si="5">B15*B14</f>
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="C16" s="5">
-        <f>C15*C14</f>
+        <f t="shared" si="5"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="D16" s="5">
-        <f>D15*D14</f>
+        <f t="shared" si="5"/>
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="E16" s="5">
-        <f>E15*E14</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F16" s="5">
-        <f>F15*F14</f>
+        <f t="shared" si="5"/>
         <v>6.0000000000000008E-9</v>
       </c>
       <c r="G16" s="5">
-        <f>G15*G14</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="H16" s="4">
@@ -1571,53 +1580,53 @@
         <v>27</v>
       </c>
       <c r="B17" s="5">
-        <f>B16/$H16</f>
+        <f t="shared" ref="B17:G17" si="6">B16/$H16</f>
         <v>1.6666666544444445E-9</v>
       </c>
       <c r="C17" s="5">
-        <f>C16/$H16</f>
+        <f t="shared" si="6"/>
         <v>6.6666666177777786E-10</v>
       </c>
       <c r="D17" s="5">
-        <f>D16/$H16</f>
+        <f t="shared" si="6"/>
         <v>2.6666666471111114E-9</v>
       </c>
       <c r="E17" s="5">
-        <f>E16/$H16</f>
+        <f t="shared" si="6"/>
         <v>0.99999999266666673</v>
       </c>
       <c r="F17" s="5">
-        <f>F16/$H16</f>
+        <f t="shared" si="6"/>
         <v>1.9999999853333335E-9</v>
       </c>
       <c r="G17" s="5">
-        <f>G16/$H16</f>
+        <f t="shared" si="6"/>
         <v>3.3333333088888893E-10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <f>B17*LOG(1/B17)</f>
+        <f t="shared" ref="B18:G18" si="7">B17*LOG(1/B17)</f>
         <v>1.463025198199227E-8</v>
       </c>
       <c r="C18" s="5">
-        <f>C17*LOG(1/C17)</f>
+        <f t="shared" si="7"/>
         <v>6.1173941299661151E-9</v>
       </c>
       <c r="D18" s="5">
-        <f>D17*LOG(1/D17)</f>
+        <f t="shared" si="7"/>
         <v>2.2864083221430181E-8</v>
       </c>
       <c r="E18" s="5">
-        <f>E17*LOG(1/E17)</f>
+        <f t="shared" si="7"/>
         <v>3.1848261398062208E-9</v>
       </c>
       <c r="F18" s="5">
-        <f>F17*LOG(1/F17)</f>
+        <f t="shared" si="7"/>
         <v>1.7397939887456799E-8</v>
       </c>
       <c r="G18" s="5">
-        <f>G17*LOG(1/G17)</f>
+        <f t="shared" si="7"/>
         <v>3.1590403961352004E-9</v>
       </c>
       <c r="H18" s="6">
@@ -1688,27 +1697,27 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
-        <f>B25*B24</f>
+        <f t="shared" ref="B26:G26" si="8">B25*B24</f>
         <v>2.9999999999999996E-9</v>
       </c>
       <c r="C26" s="5">
-        <f>C25*C24</f>
+        <f t="shared" si="8"/>
         <v>1.7999999999999999E-8</v>
       </c>
       <c r="D26" s="5">
-        <f>D25*D24</f>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="E26" s="5">
-        <f>E25*E24</f>
+        <f t="shared" si="8"/>
         <v>3.4999999999999996E-8</v>
       </c>
       <c r="F26" s="5">
-        <f>F25*F24</f>
+        <f t="shared" si="8"/>
         <v>1.3000000000000001E-8</v>
       </c>
       <c r="G26" s="5">
-        <f>G25*G24</f>
+        <f t="shared" si="8"/>
         <v>2.0999999999999999E-8</v>
       </c>
       <c r="H26" s="4">
@@ -1721,53 +1730,53 @@
         <v>27</v>
       </c>
       <c r="B27" s="5">
-        <f>B26/$H26</f>
+        <f t="shared" ref="B27:G27" si="9">B26/$H26</f>
         <v>3.7499995781250469E-9</v>
       </c>
       <c r="C27" s="5">
-        <f>C26/$H26</f>
+        <f t="shared" si="9"/>
         <v>2.2499997468750285E-8</v>
       </c>
       <c r="D27" s="5">
-        <f>D26/$H26</f>
+        <f t="shared" si="9"/>
         <v>0.99999988750001279</v>
       </c>
       <c r="E27" s="5">
-        <f>E26/$H26</f>
+        <f t="shared" si="9"/>
         <v>4.3749995078125554E-8</v>
       </c>
       <c r="F27" s="5">
-        <f>F26/$H26</f>
+        <f t="shared" si="9"/>
         <v>1.6249998171875207E-8</v>
       </c>
       <c r="G27" s="5">
-        <f>G26/$H26</f>
+        <f t="shared" si="9"/>
         <v>2.6249997046875332E-8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
-        <f>B27*LOG(1/B27)</f>
+        <f t="shared" ref="B28:G28" si="10">B27*LOG(1/B27)</f>
         <v>3.1597379374533842E-8</v>
       </c>
       <c r="C28" s="5">
-        <f>C27*LOG(1/C27)</f>
+        <f t="shared" si="10"/>
         <v>1.7207587508326623E-7</v>
       </c>
       <c r="D28" s="5">
-        <f>D27*LOG(1/D27)</f>
+        <f t="shared" si="10"/>
         <v>4.8858120865239317E-8</v>
       </c>
       <c r="E28" s="5">
-        <f>E27*LOG(1/E27)</f>
+        <f t="shared" si="10"/>
         <v>3.2195717590793374E-7</v>
       </c>
       <c r="F28" s="5">
-        <f>F27*LOG(1/F27)</f>
+        <f t="shared" si="10"/>
         <v>1.2657361936804537E-7</v>
       </c>
       <c r="G28" s="5">
-        <f>G27*LOG(1/G27)</f>
+        <f t="shared" si="10"/>
         <v>1.9899783456704255E-7</v>
       </c>
       <c r="H28" s="6">
